--- a/test/templates/test-header.xlsx
+++ b/test/templates/test-header.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\d\kant\GitHub\xlsx-template\test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617008C6-96BD-4DAF-8B00-37935C644462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="17565" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -35,40 +36,40 @@
     <t>Age</t>
   </si>
   <si>
-    <t>${table:ages.name}</t>
-  </si>
-  <si>
-    <t>${table:ages.age}</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
-    <t>${table:scores.score}</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
-    <t>${table:coords.x}</t>
-  </si>
-  <si>
-    <t>${table:coords.y}</t>
-  </si>
-  <si>
-    <t>${table:dates.name}</t>
-  </si>
-  <si>
-    <t>${table:dates.dates}</t>
-  </si>
-  <si>
     <t>Dates list</t>
   </si>
   <si>
-    <t>${table:scores.name}</t>
+    <t>{table:ages.name}</t>
+  </si>
+  <si>
+    <t>{table:ages.age}</t>
+  </si>
+  <si>
+    <t>{table:scores.name}</t>
+  </si>
+  <si>
+    <t>{table:scores.score}</t>
+  </si>
+  <si>
+    <t>{table:coords.x}</t>
+  </si>
+  <si>
+    <t>{table:coords.y}</t>
+  </si>
+  <si>
+    <t>{table:dates.name}</t>
+  </si>
+  <si>
+    <t>{table:dates.dates}</t>
   </si>
 </sst>
 </file>
@@ -159,12 +160,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Гиперссылка" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -504,7 +505,7 @@
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -545,21 +546,21 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>102</v>
@@ -567,18 +568,18 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>103</v>
@@ -589,15 +590,15 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>104</v>
